--- a/biology/Histoire de la zoologie et de la botanique/Giuseppe_Zinanni/Giuseppe_Zinanni.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giuseppe_Zinanni/Giuseppe_Zinanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comte Giuseppe Ginanni ou Zinanni (né le 7 novembre 1692 à Ravenne et mort le 23 octobre 1753 dans cette même ville) était un naturaliste italien du XVIIIe siècle.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ginanni est l'auteur du premier ouvrage entièrement consacré aux œufs d'oiseaux[1] : Dell Uova e dei Nidi degli Uccelli (Venise, 1737), illustré de 34 planches en noir[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ginanni est l'auteur du premier ouvrage entièrement consacré aux œufs d'oiseaux : Dell Uova e dei Nidi degli Uccelli (Venise, 1737), illustré de 34 planches en noir. 
 Les oiseaux y sont divisés en trois groupes, les oiseaux terrestres non-rapaces (uccelli terrestri non rapaci), les rapaces terrestres (uccelli terrestri rapaci) et les oiseaux d'eau (uccelli aquatici). Chaque planche oologique décrit d'un à neuf œufs représentant 106 espèces.
 Il publiera plus tard un livre sur les escargots terrestres et leur reproduction, puis un autre sur les sauterelles.
 </t>
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cesare Conci et Roberto Poggi (1996), Iconography of Italian Entomologists, with essential biographical data. Memorie della Società entomologica Italiana, 75 : 159-382.  (ISSN 0037-8747)</t>
         </is>
